--- a/data_output/prism_passive/all_passive_out_length_SEE_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_SEE_Fuku_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>429.06422875288774</v>
+        <v>429.06422874924579</v>
       </c>
       <c r="C2">
-        <v>398.45890995989623</v>
+        <v>398.45890995988032</v>
       </c>
       <c r="D2">
-        <v>359.46188972308312</v>
+        <v>359.46188973422466</v>
       </c>
       <c r="E2">
-        <v>393.05071255452759</v>
+        <v>393.05071256356013</v>
       </c>
       <c r="F2">
-        <v>392.820338690982</v>
+        <v>392.82033870623127</v>
       </c>
       <c r="G2">
-        <v>405.92744831035407</v>
+        <v>405.92744831459493</v>
       </c>
       <c r="H2">
-        <v>422.04628074245176</v>
+        <v>422.0462807483255</v>
       </c>
       <c r="I2">
-        <v>461.56007201119678</v>
+        <v>461.56007201425331</v>
       </c>
       <c r="J2">
-        <v>400.90219988867574</v>
+        <v>400.90219989837169</v>
       </c>
       <c r="K2">
-        <v>417.93520801961529</v>
+        <v>417.9352080299418</v>
       </c>
       <c r="L2">
-        <v>442.43654809270907</v>
+        <v>442.43654808936981</v>
       </c>
       <c r="M2">
-        <v>441.70126585106414</v>
+        <v>441.70126584829035</v>
       </c>
       <c r="N2">
-        <v>451.30263226479337</v>
+        <v>451.30263226576318</v>
       </c>
       <c r="O2">
-        <v>384.50110720851268</v>
+        <v>384.50110722503314</v>
       </c>
       <c r="P2">
-        <v>406.71884913513412</v>
+        <v>406.71884913404017</v>
       </c>
       <c r="Q2">
-        <v>469.65107376722835</v>
+        <v>469.65107377243328</v>
       </c>
       <c r="R2">
-        <v>458.24148135018004</v>
+        <v>458.24148137044847</v>
       </c>
       <c r="S2">
-        <v>440.22871494158596</v>
+        <v>440.22871492542384</v>
       </c>
       <c r="T2">
-        <v>464.29839131088363</v>
+        <v>464.29839130326235</v>
       </c>
       <c r="U2">
-        <v>371.03660298276543</v>
+        <v>371.03660300288078</v>
       </c>
       <c r="V2">
-        <v>471.75139909998177</v>
+        <v>471.75139911381206</v>
       </c>
       <c r="W2">
-        <v>448.0563092963182</v>
+        <v>448.05630930473978</v>
       </c>
       <c r="X2">
-        <v>376.18858449700281</v>
+        <v>376.18858449837035</v>
       </c>
       <c r="Y2">
-        <v>366.39243064256709</v>
+        <v>366.39243065902451</v>
       </c>
       <c r="Z2">
-        <v>379.59174380038667</v>
+        <v>379.59174382041442</v>
       </c>
       <c r="AA2">
-        <v>424.46951022778251</v>
+        <v>424.46951024468837</v>
       </c>
       <c r="AB2">
-        <v>395.06732036336336</v>
+        <v>395.06732039175006</v>
       </c>
       <c r="AC2">
-        <v>362.01918733799857</v>
+        <v>362.01918734982041</v>
       </c>
       <c r="AD2">
-        <v>391.12898938990605</v>
+        <v>391.12898942432651</v>
       </c>
       <c r="AE2">
-        <v>386.90890860903227</v>
+        <v>386.90890862389296</v>
       </c>
       <c r="AF2">
-        <v>403.96148975947386</v>
+        <v>403.96148977309497</v>
       </c>
       <c r="AG2">
-        <v>419.19607991852814</v>
+        <v>419.19607993406925</v>
       </c>
       <c r="AH2">
-        <v>460.30564692634357</v>
+        <v>460.3056469425959</v>
       </c>
       <c r="AI2">
-        <v>394.56605796816439</v>
+        <v>394.56605799293402</v>
       </c>
       <c r="AJ2">
-        <v>418.81827698415219</v>
+        <v>418.81827699675364</v>
       </c>
       <c r="AK2">
-        <v>438.59413128683076</v>
+        <v>438.5941313008135</v>
       </c>
       <c r="AL2">
-        <v>438.34569707089463</v>
+        <v>438.34569708438994</v>
       </c>
       <c r="AM2">
-        <v>452.52221117323558</v>
+        <v>452.52221118549647</v>
       </c>
       <c r="AN2">
-        <v>381.29154582364674</v>
+        <v>381.29154584488936</v>
       </c>
       <c r="AO2">
-        <v>402.03462579511375</v>
+        <v>402.03462580392346</v>
       </c>
       <c r="AP2">
-        <v>464.9540269711639</v>
+        <v>464.95402699475545</v>
       </c>
       <c r="AQ2">
-        <v>457.5674137087255</v>
+        <v>457.56741372270648</v>
       </c>
       <c r="AR2">
-        <v>440.53283867214913</v>
+        <v>440.5328386818793</v>
       </c>
       <c r="AS2">
-        <v>463.10502079391279</v>
+        <v>463.10502081469446</v>
       </c>
       <c r="AT2">
-        <v>362.84419415322543</v>
+        <v>362.84419417048935</v>
       </c>
       <c r="AU2">
-        <v>463.8160365230533</v>
+        <v>463.81603655109467</v>
       </c>
       <c r="AV2">
-        <v>441.1561589980542</v>
+        <v>441.15615902334105</v>
       </c>
       <c r="AW2">
-        <v>378.1861678036733</v>
+        <v>378.18616782236569</v>
       </c>
       <c r="AX2">
-        <v>362.09874683253958</v>
+        <v>362.09874685563477</v>
       </c>
       <c r="AY2">
-        <v>374.07843540598549</v>
+        <v>374.0784354249995</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>427.4711113324347</v>
+        <v>427.47111134267976</v>
       </c>
       <c r="C3">
-        <v>411.69474211950745</v>
+        <v>411.69474213782888</v>
       </c>
       <c r="D3">
-        <v>346.57352770924911</v>
+        <v>346.57352773768002</v>
       </c>
       <c r="E3">
-        <v>400.56044560747586</v>
+        <v>400.56044562468691</v>
       </c>
       <c r="F3">
-        <v>395.05749266446958</v>
+        <v>395.05749267778771</v>
       </c>
       <c r="G3">
-        <v>395.04692824327543</v>
+        <v>395.04692825200607</v>
       </c>
       <c r="H3">
-        <v>420.83369540347712</v>
+        <v>420.83369541167667</v>
       </c>
       <c r="I3">
-        <v>458.26746947380531</v>
+        <v>458.2674694820177</v>
       </c>
       <c r="J3">
-        <v>401.33125871169784</v>
+        <v>401.33125871718437</v>
       </c>
       <c r="K3">
-        <v>406.36767189633582</v>
+        <v>406.36767189702351</v>
       </c>
       <c r="L3">
-        <v>440.62554217702842</v>
+        <v>440.62554218773784</v>
       </c>
       <c r="M3">
-        <v>435.01759573579204</v>
+        <v>435.01782790745591</v>
       </c>
       <c r="N3">
-        <v>458.52010151709743</v>
+        <v>458.52010153135177</v>
       </c>
       <c r="O3">
-        <v>392.44012266050493</v>
+        <v>392.44012266708523</v>
       </c>
       <c r="P3">
-        <v>411.81262019635903</v>
+        <v>411.81262022445839</v>
       </c>
       <c r="Q3">
-        <v>475.73067329849533</v>
+        <v>475.7306733038306</v>
       </c>
       <c r="R3">
-        <v>470.35786731053412</v>
+        <v>470.35786732153366</v>
       </c>
       <c r="S3">
-        <v>448.88475905699937</v>
+        <v>448.88475906097511</v>
       </c>
       <c r="T3">
-        <v>461.63236633301693</v>
+        <v>461.63236634768714</v>
       </c>
       <c r="U3">
-        <v>367.23762133028964</v>
+        <v>367.23762134215201</v>
       </c>
       <c r="V3">
-        <v>463.28338489364927</v>
+        <v>463.28338490321818</v>
       </c>
       <c r="W3">
-        <v>436.82863905618757</v>
+        <v>436.82863906614944</v>
       </c>
       <c r="X3">
-        <v>381.74894664635121</v>
+        <v>381.74894665653522</v>
       </c>
       <c r="Y3">
-        <v>357.39747181545886</v>
+        <v>357.39747183974555</v>
       </c>
       <c r="Z3">
-        <v>378.77922971084161</v>
+        <v>378.77922973355919</v>
       </c>
       <c r="AA3">
-        <v>425.58100551523682</v>
+        <v>425.58100553363545</v>
       </c>
       <c r="AB3">
-        <v>403.82495690395143</v>
+        <v>403.82495692859641</v>
       </c>
       <c r="AC3">
-        <v>347.19164020191749</v>
+        <v>347.19164021310348</v>
       </c>
       <c r="AD3">
-        <v>391.94240074260131</v>
+        <v>391.94240076105552</v>
       </c>
       <c r="AE3">
-        <v>385.8877023394291</v>
+        <v>385.88770234713598</v>
       </c>
       <c r="AF3">
-        <v>393.54457651201255</v>
+        <v>393.54457652926021</v>
       </c>
       <c r="AG3">
-        <v>413.2463857407854</v>
+        <v>413.24638575139795</v>
       </c>
       <c r="AH3">
-        <v>451.85255158940254</v>
+        <v>451.85255160365153</v>
       </c>
       <c r="AI3">
-        <v>380.83451680161875</v>
+        <v>380.83451682705316</v>
       </c>
       <c r="AJ3">
-        <v>414.39624704776094</v>
+        <v>414.39624705541644</v>
       </c>
       <c r="AK3">
-        <v>433.7892494301592</v>
+        <v>433.78924945376508</v>
       </c>
       <c r="AL3">
-        <v>435.81727638651677</v>
+        <v>435.81727641049758</v>
       </c>
       <c r="AM3">
-        <v>454.2591839433361</v>
+        <v>454.25918397107148</v>
       </c>
       <c r="AN3">
-        <v>388.17910700241259</v>
+        <v>388.17910701290907</v>
       </c>
       <c r="AO3">
-        <v>406.97470969720564</v>
+        <v>406.97470973992853</v>
       </c>
       <c r="AP3">
-        <v>475.0863666365583</v>
+        <v>475.08636665463416</v>
       </c>
       <c r="AQ3">
-        <v>463.23338371282603</v>
+        <v>463.23338373877107</v>
       </c>
       <c r="AR3">
-        <v>438.5855340270067</v>
+        <v>438.58553404070398</v>
       </c>
       <c r="AS3">
-        <v>466.01384574872947</v>
+        <v>466.01384576281339</v>
       </c>
       <c r="AT3">
-        <v>365.67889165865182</v>
+        <v>365.67889168593729</v>
       </c>
       <c r="AU3">
-        <v>464.25032894619505</v>
+        <v>464.25032894710927</v>
       </c>
       <c r="AV3">
-        <v>436.56216488689785</v>
+        <v>436.56216490648006</v>
       </c>
       <c r="AW3">
-        <v>378.73656821849011</v>
+        <v>378.73656823555126</v>
       </c>
       <c r="AX3">
-        <v>368.46262389125752</v>
+        <v>368.46262390636696</v>
       </c>
       <c r="AY3">
-        <v>371.09076427333309</v>
+        <v>371.09076430169915</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_length_SEE_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_SEE_Fuku_common_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>429.06422874924579</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>398.45890995988032</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>359.46188973422466</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>393.05071256356013</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>392.82033870623127</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>405.92744831459493</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>422.0462807483255</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>461.56007201425331</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>400.90219989837169</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>417.9352080299418</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>442.43654808936981</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>441.70126584829035</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>451.30263226576318</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>384.50110722503314</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>406.71884913404017</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>469.65107377243328</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>458.24148137044847</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>440.22871492542384</v>
+        <v>446.65766262775344</v>
       </c>
       <c r="T2">
         <v>464.29839130326235</v>
@@ -588,55 +477,55 @@
         <v>379.59174382041442</v>
       </c>
       <c r="AA2">
-        <v>424.46951024468837</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>395.06732039175006</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>362.01918734982041</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>391.12898942432651</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>386.90890862389296</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>403.96148977309497</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>419.19607993406925</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>460.3056469425959</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>394.56605799293402</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>418.81827699675364</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>438.5941313008135</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>438.34569708438994</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>452.52221118549647</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>381.29154584488936</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>402.03462580392346</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>464.95402699475545</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>457.56741372270648</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>440.5328386818793</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>427.47111134267976</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>411.69474213782888</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>346.57352773768002</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>400.56044562468691</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>395.05749267778771</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>395.04692825200607</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>420.83369541167667</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>458.2674694820177</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>401.33125871718437</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>406.36767189702351</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>440.62554218773784</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>435.01782790745591</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>458.52010153135177</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>392.44012266708523</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>411.81262022445839</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>475.7306733038306</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>470.35786732153366</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>448.88475906097511</v>
@@ -743,55 +629,55 @@
         <v>378.77922973355919</v>
       </c>
       <c r="AA3">
-        <v>425.58100553363545</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>403.82495692859641</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>347.19164021310348</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>391.94240076105552</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>385.88770234713598</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>393.54457652926021</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>413.24638575139795</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>451.85255160365153</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>380.83451682705316</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>414.39624705541644</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>433.78924945376508</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>435.81727641049758</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>454.25918397107148</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>388.17910701290907</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>406.97470973992853</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>475.08636665463416</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>463.23338373877107</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>438.58553404070398</v>

--- a/data_output/prism_passive/all_passive_out_length_SEE_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_SEE_Fuku_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>429.06422875288774</v>
+        <v>384.50110722503314</v>
       </c>
       <c r="C2">
-        <v>401.32029291320669</v>
+        <v>458.24148137044847</v>
       </c>
       <c r="D2">
-        <v>359.46188972308312</v>
+        <v>381.29154584488936</v>
       </c>
       <c r="E2">
-        <v>393.05071255452759</v>
+        <v>457.56741372270648</v>
       </c>
       <c r="F2">
         <v>392.820338690982</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>427.4711113324347</v>
+        <v>387.1899712143674</v>
       </c>
       <c r="C3">
-        <v>411.69474211950745</v>
+        <v>470.35786732153366</v>
       </c>
       <c r="D3">
-        <v>346.57352770924911</v>
+        <v>387.66631878104988</v>
       </c>
       <c r="E3">
-        <v>400.56044560747586</v>
+        <v>461.13483003093074</v>
       </c>
       <c r="F3">
         <v>395.05749266446958</v>

--- a/data_output/prism_passive/all_passive_out_length_SEE_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_SEE_Fuku_common_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>429.06422875288774</v>
+        <v>452.58925421558689</v>
       </c>
       <c r="C2">
-        <v>401.32029291320669</v>
+        <v>384.50110722503314</v>
       </c>
       <c r="D2">
-        <v>359.46188972308312</v>
+        <v>452.52221118549647</v>
       </c>
       <c r="E2">
-        <v>393.05071255452759</v>
+        <v>381.29154584488936</v>
       </c>
       <c r="F2">
         <v>392.820338690982</v>
@@ -670,16 +665,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>427.4711113324347</v>
+        <v>458.52010153135177</v>
       </c>
       <c r="C3">
-        <v>411.69474211950745</v>
+        <v>387.1899712143674</v>
       </c>
       <c r="D3">
-        <v>346.57352770924911</v>
+        <v>454.25918397107148</v>
       </c>
       <c r="E3">
-        <v>393.68192602781585</v>
+        <v>387.66631878104988</v>
       </c>
       <c r="F3">
         <v>395.05749266446958</v>

--- a/data_output/prism_passive/all_passive_out_length_SEE_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_SEE_Fuku_common_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,151 +513,151 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>429.06422874924579</v>
+      </c>
+      <c r="C2">
+        <v>401.32029291983349</v>
+      </c>
+      <c r="D2">
+        <v>359.46188973422466</v>
+      </c>
+      <c r="E2">
+        <v>393.05071256356013</v>
+      </c>
+      <c r="F2">
+        <v>392.82033870623127</v>
+      </c>
+      <c r="G2">
+        <v>403.06098181111901</v>
+      </c>
+      <c r="H2">
+        <v>422.0462807483255</v>
+      </c>
+      <c r="I2">
+        <v>458.10954522479449</v>
+      </c>
+      <c r="J2">
+        <v>400.90219989837169</v>
+      </c>
+      <c r="K2">
+        <v>417.9352080299418</v>
+      </c>
+      <c r="L2">
+        <v>443.05937219716151</v>
+      </c>
+      <c r="M2">
+        <v>435.22693110987899</v>
+      </c>
+      <c r="N2">
         <v>452.58925421558689</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>384.50110722503314</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>405.85575081048961</v>
+      </c>
+      <c r="Q2">
+        <v>469.65107377243328</v>
+      </c>
+      <c r="R2">
+        <v>458.24148137044847</v>
+      </c>
+      <c r="T2">
+        <v>467.39579796539078</v>
+      </c>
+      <c r="U2">
+        <v>371.03660300288078</v>
+      </c>
+      <c r="V2">
+        <v>468.95714344679726</v>
+      </c>
+      <c r="W2">
+        <v>448.05630930473978</v>
+      </c>
+      <c r="X2">
+        <v>376.18858449837035</v>
+      </c>
+      <c r="Y2">
+        <v>366.39243065902451</v>
+      </c>
+      <c r="Z2">
+        <v>379.59174382041442</v>
+      </c>
+      <c r="AA2">
+        <v>424.46951024468837</v>
+      </c>
+      <c r="AB2">
+        <v>395.06732039175006</v>
+      </c>
+      <c r="AC2">
+        <v>362.01918734982041</v>
+      </c>
+      <c r="AD2">
+        <v>391.12898942432651</v>
+      </c>
+      <c r="AE2">
+        <v>386.90890862389296</v>
+      </c>
+      <c r="AF2">
+        <v>403.96148977309497</v>
+      </c>
+      <c r="AG2">
+        <v>419.19607993406925</v>
+      </c>
+      <c r="AH2">
+        <v>460.3056469425959</v>
+      </c>
+      <c r="AI2">
+        <v>394.56605799293402</v>
+      </c>
+      <c r="AJ2">
+        <v>418.81827699675364</v>
+      </c>
+      <c r="AK2">
+        <v>438.5941313008135</v>
+      </c>
+      <c r="AL2">
+        <v>438.34569708438994</v>
+      </c>
+      <c r="AM2">
         <v>452.52221118549647</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>381.29154584488936</v>
       </c>
-      <c r="F2">
-        <v>392.820338690982</v>
-      </c>
-      <c r="G2">
-        <v>403.06098181133569</v>
-      </c>
-      <c r="H2">
-        <v>422.04628074245176</v>
-      </c>
-      <c r="I2">
-        <v>458.10954520956267</v>
-      </c>
-      <c r="J2">
-        <v>400.90219988867574</v>
-      </c>
-      <c r="K2">
-        <v>417.93520801961529</v>
-      </c>
-      <c r="L2">
-        <v>443.05937218876977</v>
-      </c>
-      <c r="M2">
-        <v>435.22693111955294</v>
-      </c>
-      <c r="N2">
-        <v>452.58925420901642</v>
-      </c>
-      <c r="O2">
-        <v>384.50110720851268</v>
-      </c>
-      <c r="P2">
-        <v>405.85575081286595</v>
-      </c>
-      <c r="Q2">
-        <v>469.65107376722835</v>
-      </c>
-      <c r="R2">
-        <v>458.24148135018004</v>
-      </c>
-      <c r="T2">
-        <v>467.39579795860874</v>
-      </c>
-      <c r="U2">
-        <v>371.03660298276543</v>
-      </c>
-      <c r="V2">
-        <v>468.95714342500634</v>
-      </c>
-      <c r="W2">
-        <v>448.0563092963182</v>
-      </c>
-      <c r="X2">
-        <v>376.18858449700281</v>
-      </c>
-      <c r="Y2">
-        <v>366.39243064256709</v>
-      </c>
-      <c r="Z2">
-        <v>379.59174380038667</v>
-      </c>
-      <c r="AA2">
-        <v>424.46951022778251</v>
-      </c>
-      <c r="AB2">
-        <v>395.06732036336336</v>
-      </c>
-      <c r="AC2">
-        <v>362.01918733799857</v>
-      </c>
-      <c r="AD2">
-        <v>391.12898938990605</v>
-      </c>
-      <c r="AE2">
-        <v>386.90890860903227</v>
-      </c>
-      <c r="AF2">
-        <v>403.96148975947386</v>
-      </c>
-      <c r="AG2">
-        <v>419.19607991852814</v>
-      </c>
-      <c r="AH2">
-        <v>460.30564692634357</v>
-      </c>
-      <c r="AI2">
-        <v>394.56605796816439</v>
-      </c>
-      <c r="AJ2">
-        <v>418.81827698415219</v>
-      </c>
-      <c r="AK2">
-        <v>438.59413128683076</v>
-      </c>
-      <c r="AL2">
-        <v>438.34569707089463</v>
-      </c>
-      <c r="AM2">
-        <v>452.52221117323558</v>
-      </c>
-      <c r="AN2">
-        <v>381.29154582364674</v>
-      </c>
       <c r="AO2">
-        <v>402.03462579511375</v>
+        <v>402.03462580392346</v>
       </c>
       <c r="AP2">
-        <v>462.76306491518068</v>
+        <v>462.76306493329594</v>
       </c>
       <c r="AQ2">
-        <v>457.5674137087255</v>
+        <v>457.56741372270648</v>
       </c>
       <c r="AR2">
-        <v>440.53283867214913</v>
+        <v>440.5328386818793</v>
       </c>
       <c r="AS2">
-        <v>463.10502079391279</v>
+        <v>463.10502081469446</v>
       </c>
       <c r="AT2">
-        <v>362.84419415322543</v>
+        <v>362.84419417048935</v>
       </c>
       <c r="AU2">
-        <v>469.16701070557059</v>
+        <v>469.16701071888673</v>
       </c>
       <c r="AV2">
-        <v>441.1561589980542</v>
+        <v>441.15615902334105</v>
       </c>
       <c r="AW2">
-        <v>378.1861678036733</v>
+        <v>378.18616782236569</v>
       </c>
       <c r="AX2">
-        <v>362.09874683253958</v>
+        <v>362.09874685563477</v>
       </c>
       <c r="AY2">
-        <v>374.07843540598549</v>
+        <v>374.0784354249995</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -665,154 +665,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>427.47111134267976</v>
+      </c>
+      <c r="C3">
+        <v>411.69474213782888</v>
+      </c>
+      <c r="D3">
+        <v>346.57352773768002</v>
+      </c>
+      <c r="E3">
+        <v>393.68192604777562</v>
+      </c>
+      <c r="F3">
+        <v>395.05749267778771</v>
+      </c>
+      <c r="G3">
+        <v>395.04692825200607</v>
+      </c>
+      <c r="H3">
+        <v>420.83369541167667</v>
+      </c>
+      <c r="I3">
+        <v>458.2674694820177</v>
+      </c>
+      <c r="J3">
+        <v>401.33125871718437</v>
+      </c>
+      <c r="K3">
+        <v>407.94467377486097</v>
+      </c>
+      <c r="L3">
+        <v>440.62554218773784</v>
+      </c>
+      <c r="M3">
+        <v>439.96289952549853</v>
+      </c>
+      <c r="N3">
         <v>458.52010153135177</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>387.1899712143674</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>411.81262022445839</v>
+      </c>
+      <c r="Q3">
+        <v>475.7306733038306</v>
+      </c>
+      <c r="R3">
+        <v>470.35786732153366</v>
+      </c>
+      <c r="S3">
+        <v>448.88475906097511</v>
+      </c>
+      <c r="T3">
+        <v>461.63236634768714</v>
+      </c>
+      <c r="U3">
+        <v>367.23762134215201</v>
+      </c>
+      <c r="V3">
+        <v>461.59775089840429</v>
+      </c>
+      <c r="W3">
+        <v>436.82863906614944</v>
+      </c>
+      <c r="X3">
+        <v>381.74894665653522</v>
+      </c>
+      <c r="Y3">
+        <v>357.39747183974555</v>
+      </c>
+      <c r="Z3">
+        <v>378.77922973355919</v>
+      </c>
+      <c r="AA3">
+        <v>425.58100553363545</v>
+      </c>
+      <c r="AB3">
+        <v>403.82495692859641</v>
+      </c>
+      <c r="AC3">
+        <v>347.19164021310348</v>
+      </c>
+      <c r="AD3">
+        <v>391.94240076105552</v>
+      </c>
+      <c r="AE3">
+        <v>385.88770234713598</v>
+      </c>
+      <c r="AF3">
+        <v>393.54457652926021</v>
+      </c>
+      <c r="AG3">
+        <v>413.24638575139795</v>
+      </c>
+      <c r="AH3">
+        <v>451.85255160365153</v>
+      </c>
+      <c r="AI3">
+        <v>403.91777684808761</v>
+      </c>
+      <c r="AJ3">
+        <v>414.39624705541644</v>
+      </c>
+      <c r="AK3">
+        <v>433.78924945376508</v>
+      </c>
+      <c r="AL3">
+        <v>435.81727641049758</v>
+      </c>
+      <c r="AM3">
         <v>454.25918397107148</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>387.66631878104988</v>
       </c>
-      <c r="F3">
-        <v>395.05749266446958</v>
-      </c>
-      <c r="G3">
-        <v>395.04692824327543</v>
-      </c>
-      <c r="H3">
-        <v>420.83369540347712</v>
-      </c>
-      <c r="I3">
-        <v>458.26746947380531</v>
-      </c>
-      <c r="J3">
-        <v>401.33125871169784</v>
-      </c>
-      <c r="K3">
-        <v>407.9446737654676</v>
-      </c>
-      <c r="L3">
-        <v>440.62554217702842</v>
-      </c>
-      <c r="M3">
-        <v>439.96274406928762</v>
-      </c>
-      <c r="N3">
-        <v>458.52010151709743</v>
-      </c>
-      <c r="O3">
-        <v>387.18997120333285</v>
-      </c>
-      <c r="P3">
-        <v>411.81262019635903</v>
-      </c>
-      <c r="Q3">
-        <v>475.73067329849533</v>
-      </c>
-      <c r="R3">
-        <v>470.35786731053412</v>
-      </c>
-      <c r="S3">
-        <v>448.88475905699937</v>
-      </c>
-      <c r="T3">
-        <v>461.63236633301693</v>
-      </c>
-      <c r="U3">
-        <v>367.23762133028964</v>
-      </c>
-      <c r="V3">
-        <v>461.59775087736688</v>
-      </c>
-      <c r="W3">
-        <v>436.82863905618757</v>
-      </c>
-      <c r="X3">
-        <v>381.74894664635121</v>
-      </c>
-      <c r="Y3">
-        <v>357.39747181545886</v>
-      </c>
-      <c r="Z3">
-        <v>378.77922971084161</v>
-      </c>
-      <c r="AA3">
-        <v>425.58100551523682</v>
-      </c>
-      <c r="AB3">
-        <v>403.82495690395143</v>
-      </c>
-      <c r="AC3">
-        <v>347.19164020191749</v>
-      </c>
-      <c r="AD3">
-        <v>391.94240074260131</v>
-      </c>
-      <c r="AE3">
-        <v>385.8877023394291</v>
-      </c>
-      <c r="AF3">
-        <v>393.54457651201255</v>
-      </c>
-      <c r="AG3">
-        <v>413.2463857407854</v>
-      </c>
-      <c r="AH3">
-        <v>451.85255158940254</v>
-      </c>
-      <c r="AI3">
-        <v>403.91777682121216</v>
-      </c>
-      <c r="AJ3">
-        <v>414.39624704776094</v>
-      </c>
-      <c r="AK3">
-        <v>433.7892494301592</v>
-      </c>
-      <c r="AL3">
-        <v>435.81727638651677</v>
-      </c>
-      <c r="AM3">
-        <v>454.2591839433361</v>
-      </c>
-      <c r="AN3">
-        <v>387.6663187672321</v>
-      </c>
       <c r="AO3">
-        <v>406.97470969720564</v>
+        <v>406.97470973992853</v>
       </c>
       <c r="AP3">
-        <v>475.0863666365583</v>
+        <v>475.08636665463416</v>
       </c>
       <c r="AQ3">
-        <v>461.13483002605614</v>
+        <v>461.13483003093074</v>
       </c>
       <c r="AR3">
-        <v>438.5855340270067</v>
+        <v>438.58553404070398</v>
       </c>
       <c r="AS3">
-        <v>466.01384574872947</v>
+        <v>466.01384576281339</v>
       </c>
       <c r="AT3">
-        <v>365.67889165865182</v>
+        <v>365.67889168593729</v>
       </c>
       <c r="AU3">
-        <v>463.66318344766319</v>
+        <v>463.66318343042605</v>
       </c>
       <c r="AV3">
-        <v>436.56216488689785</v>
+        <v>436.56216490648006</v>
       </c>
       <c r="AW3">
-        <v>378.73656821849011</v>
+        <v>378.73656823555126</v>
       </c>
       <c r="AX3">
-        <v>368.46262389125752</v>
+        <v>368.46262390636696</v>
       </c>
       <c r="AY3">
-        <v>371.09076427333309</v>
+        <v>371.09076430169915</v>
       </c>
     </row>
   </sheetData>
